--- a/QA/bugReport_UserInteract1.xlsx
+++ b/QA/bugReport_UserInteract1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zork/Desktop/swift/StoreRoom/QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600A05A6-8326-6149-A6A1-9FA654C23382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B54ABFB-343A-8B4A-BE4D-6D76BE6D6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7A968430-7FC1-B349-A0D4-34F5C039606C}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>Новый</t>
-  </si>
-  <si>
     <t>Сборка:</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
     <t>Приложение отреагировало на ландшафтную ориентацию. Интерфейс приложения перестроился. 
 Камера работает в портретной ориентации.
 Не реагируют кнопки в диалоговом окне подтверждения удаления.</t>
+  </si>
+  <si>
+    <t>выполнено</t>
   </si>
 </sst>
 </file>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -255,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +666,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -690,10 +693,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2">
-        <v>45018</v>
+        <v>45017</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -702,7 +705,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -714,7 +717,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
@@ -741,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
@@ -762,10 +765,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -774,10 +777,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -786,10 +789,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -798,7 +801,7 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -813,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -830,19 +833,19 @@
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
